--- a/final_stuff/FinalProject_Primary_Review2.xlsx
+++ b/final_stuff/FinalProject_Primary_Review2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t xml:space="preserve">Date:</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t xml:space="preserve">Hierarchical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
   </si>
   <si>
     <t xml:space="preserve">K-means</t>
@@ -436,7 +439,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -523,51 +526,72 @@
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="D8" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12"/>
       <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12"/>
       <c r="B10" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12"/>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12"/>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="12"/>
       <c r="B15" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="12"/>
       <c r="B16" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -576,39 +600,54 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="12"/>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="12"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="12"/>
       <c r="B22" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="12"/>
       <c r="B23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -616,10 +655,13 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -627,16 +669,22 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="12"/>
       <c r="B28" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -644,16 +692,22 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="12"/>
       <c r="B31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -661,7 +715,7 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -672,22 +726,22 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
